--- a/xlsx/游戏_游戏_人_intext.xlsx
+++ b/xlsx/游戏_游戏_人_intext.xlsx
@@ -2510,7 +2510,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2597,7 +2597,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
